--- a/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
+++ b/data/trans_bre/P45C_R2-Provincia-trans_bre.xlsx
@@ -662,25 +662,25 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.228329795453893</v>
+        <v>-3.966135810427576</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-11.44078074177617</v>
+        <v>-11.13999808640831</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-11.72847202898369</v>
+        <v>-11.5353230329843</v>
       </c>
       <c r="F5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.2246729839233</v>
+        <v>-0.2590436697830514</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.5104715373973202</v>
+        <v>-0.5101463688020405</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.4992108713886653</v>
+        <v>-0.502567488085115</v>
       </c>
       <c r="J5" s="6" t="inlineStr"/>
     </row>
@@ -692,25 +692,25 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>9.082462085158147</v>
+        <v>8.242169589985116</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>1.170799957048269</v>
+        <v>0.7238727107899625</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1.011432224039965</v>
+        <v>1.106202750221023</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.9684788617019664</v>
+        <v>0.7402671902331603</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.011049517614208</v>
+        <v>0.8988044938832165</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1038916846088946</v>
+        <v>0.08268369141618702</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07911958119831733</v>
+        <v>0.06810145195415696</v>
       </c>
       <c r="J6" s="6" t="inlineStr"/>
     </row>
@@ -735,7 +735,7 @@
         <v>1.885670129333059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>-1.612374000478287</v>
+        <v>-1.612374000478284</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.1713976728221388</v>
@@ -747,7 +747,7 @@
         <v>0.1478336523593553</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>-0.09402385890507313</v>
+        <v>-0.09402385890507299</v>
       </c>
     </row>
     <row r="8">
@@ -758,28 +758,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-9.842923975747</v>
+        <v>-9.40544450661913</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-6.486248293342749</v>
+        <v>-6.178450892196468</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-2.250541182891749</v>
+        <v>-2.31879981646179</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.76850545990627</v>
+        <v>-7.175989101508311</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.3608502756236148</v>
+        <v>-0.3500663554401547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.449658471576076</v>
+        <v>-0.4145033606348813</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.151930568388572</v>
+        <v>-0.1546916228347887</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3288897704381255</v>
+        <v>-0.3448629959244898</v>
       </c>
     </row>
     <row r="9">
@@ -790,28 +790,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.074556298195555</v>
+        <v>0.7938191468600472</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>1.394451247201551</v>
+        <v>1.842610072528279</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>6.213505915489327</v>
+        <v>6.443119524790725</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>3.298202001832221</v>
+        <v>3.525178166472914</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.05188304448703907</v>
+        <v>0.03785210218323667</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1605989980210412</v>
+        <v>0.1923195967272051</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.5666049308354276</v>
+        <v>0.5898248203125741</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.2323104683917975</v>
+        <v>0.2475362310714243</v>
       </c>
     </row>
     <row r="10">
@@ -835,7 +835,7 @@
         <v>3.344562439191005</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.6399172776263895</v>
+        <v>0.6399172776263882</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>-0.09074540547439981</v>
@@ -847,7 +847,7 @@
         <v>0.368171483647829</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.0934129487809435</v>
+        <v>0.09341294878094329</v>
       </c>
     </row>
     <row r="11">
@@ -858,28 +858,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.110219664755602</v>
+        <v>-5.681819541745509</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-20.26895454409971</v>
+        <v>-20.11692212254252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.352424130641595</v>
+        <v>-1.448848609067047</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-3.470077913333307</v>
+        <v>-3.636812402630982</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.4302395744328907</v>
+        <v>-0.3837321541079795</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.593401020184086</v>
+        <v>-0.606240302478947</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1136820701025742</v>
+        <v>-0.1330188898829698</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.3876986709963997</v>
+        <v>-0.4178403840108103</v>
       </c>
     </row>
     <row r="12">
@@ -890,28 +890,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.882515298269402</v>
+        <v>3.899491807136345</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-7.136011221585751</v>
+        <v>-7.022860555319848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.830171669102001</v>
+        <v>8.314842230271998</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>4.48345218976338</v>
+        <v>4.263358904118311</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3853875901896757</v>
+        <v>0.3894736225920773</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>-0.2547543997601784</v>
+        <v>-0.2648318298149538</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>1.194679144480355</v>
+        <v>1.315907717716473</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.9112954636604335</v>
+        <v>0.9110055992632929</v>
       </c>
     </row>
     <row r="13">
@@ -935,7 +935,7 @@
         <v>-2.316857159754367</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>-3.638573422736578</v>
+        <v>-3.638573422736577</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4447463437242789</v>
@@ -947,7 +947,7 @@
         <v>-0.1687254604091459</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>-0.2461592842317991</v>
+        <v>-0.246159284231799</v>
       </c>
     </row>
     <row r="14">
@@ -958,28 +958,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-16.02355581758573</v>
+        <v>-15.68420187502602</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-8.645277340508484</v>
+        <v>-8.517509671194485</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-7.488663504676961</v>
+        <v>-7.483281424233666</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-10.67411922291179</v>
+        <v>-10.73657284004969</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6096522512091261</v>
+        <v>-0.6073651026783472</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.5766903605573948</v>
+        <v>-0.5807173949791611</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4503327078172022</v>
+        <v>-0.4469115843131454</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.5284952975900186</v>
+        <v>-0.5232669816717962</v>
       </c>
     </row>
     <row r="15">
@@ -990,28 +990,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>-4.35409116330853</v>
+        <v>-4.859931421794648</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.8121756309900955</v>
+        <v>0.5118489541579109</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.706406606515757</v>
+        <v>2.445751691011158</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>1.010705207351631</v>
+        <v>1.654527860085218</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>-0.2209044785406605</v>
+        <v>-0.2467280952764073</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.0989596161634196</v>
+        <v>0.06657798070293433</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2193597749169269</v>
+        <v>0.241344202827768</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.09183147635839001</v>
+        <v>0.1665036225880864</v>
       </c>
     </row>
     <row r="16">
@@ -1035,7 +1035,7 @@
         <v>-3.03856837164835</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>-2.256387839261957</v>
+        <v>-2.256387839261959</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1577892694732631</v>
@@ -1047,7 +1047,7 @@
         <v>-0.8893037577472096</v>
       </c>
       <c r="J16" s="6" t="n">
-        <v>-0.3775638073631337</v>
+        <v>-0.3775638073631338</v>
       </c>
     </row>
     <row r="17">
@@ -1058,26 +1058,28 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-3.45267698885974</v>
+        <v>-3.424563570179043</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.438252598057599</v>
+        <v>-5.998233520425599</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-6.188760112167888</v>
+        <v>-6.420092285782521</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.085897161309644</v>
+        <v>-6.038982320675565</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>-0.4507145424044481</v>
+        <v>-0.5044360815707625</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>-0.3893558954041945</v>
-      </c>
-      <c r="I17" s="6" t="inlineStr"/>
+        <v>-0.4302839977083038</v>
+      </c>
+      <c r="I17" s="6" t="n">
+        <v>-1</v>
+      </c>
       <c r="J17" s="6" t="n">
-        <v>-0.7234201334275607</v>
+        <v>-0.7312622802434114</v>
       </c>
     </row>
     <row r="18">
@@ -1088,26 +1090,28 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>5.759692968918434</v>
+        <v>5.255292316718418</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.987561193197418</v>
+        <v>6.231100798486146</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>-0.7694913690049446</v>
+        <v>-0.8747013302496075</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>1.629627433865559</v>
+        <v>1.476803587824004</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.894884700391581</v>
+        <v>1.32569264474977</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.7376727351561011</v>
-      </c>
-      <c r="I18" s="6" t="inlineStr"/>
+        <v>0.7909232589806739</v>
+      </c>
+      <c r="I18" s="6" t="n">
+        <v>0.8729986829809415</v>
+      </c>
       <c r="J18" s="6" t="n">
-        <v>0.4446744150499214</v>
+        <v>0.4567353615920557</v>
       </c>
     </row>
     <row r="19">
@@ -1131,7 +1135,7 @@
         <v>1.762940605954677</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7.814621610340311</v>
+        <v>7.814621610340295</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>-0.3563420828924094</v>
@@ -1143,7 +1147,7 @@
         <v>0.7692224491742586</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>0.364984496866286</v>
+        <v>0.3649844968662853</v>
       </c>
     </row>
     <row r="20">
@@ -1154,28 +1158,28 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-16.14917565536443</v>
+        <v>-15.83029410029266</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-17.63600514519792</v>
+        <v>-18.13029433937094</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>-1.09883424834914</v>
+        <v>-1.190898772613671</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.276543923859074</v>
+        <v>1.072940822918284</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5543421941106593</v>
+        <v>-0.545800257053041</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.4699107558617036</v>
+        <v>-0.4778094353122285</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3683486801418066</v>
+        <v>-0.3784952098954457</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.05323792687940914</v>
+        <v>0.04087320717820136</v>
       </c>
     </row>
     <row r="21">
@@ -1186,28 +1190,28 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-2.381056926435997</v>
+        <v>-1.985623529280657</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-2.673533249819185</v>
+        <v>-2.398674308302561</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>5.111653641192961</v>
+        <v>4.713029231666948</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>14.43958316603695</v>
+        <v>14.54574761429068</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>-0.1095546906490382</v>
+        <v>-0.08331771847295411</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>-0.07754800003966836</v>
+        <v>-0.0794628332469661</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>5.380673959769394</v>
+        <v>4.383766693795749</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.8283833363233798</v>
+        <v>0.8357384919255274</v>
       </c>
     </row>
     <row r="22">
@@ -1231,7 +1235,7 @@
         <v>1.798821957588498</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>-0.9313089119719564</v>
+        <v>-0.9313089119719536</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>-0.2464762316871551</v>
@@ -1243,7 +1247,7 @@
         <v>0.1250598136429638</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>-0.06426871838526008</v>
+        <v>-0.0642687183852599</v>
       </c>
     </row>
     <row r="23">
@@ -1254,28 +1258,28 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.572813636430512</v>
+        <v>-7.002330836072455</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-8.857082568333562</v>
+        <v>-8.849582535784078</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-2.39227233639639</v>
+        <v>-2.710925936079334</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-5.386597125041947</v>
+        <v>-5.369036900909782</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>-0.4425093342129214</v>
+        <v>-0.4662883551305854</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>-0.3118899283284069</v>
+        <v>-0.3223146698493679</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>-0.1383890209257277</v>
+        <v>-0.1561496751533251</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>-0.3152493513721142</v>
+        <v>-0.3108862305107447</v>
       </c>
     </row>
     <row r="24">
@@ -1286,28 +1290,28 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3823436956288422</v>
+        <v>0.2168437943970403</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.994065943306046</v>
+        <v>0.5850377452745373</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.348432564579147</v>
+        <v>5.678883280729293</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.907808917860558</v>
+        <v>3.492248309433387</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.03686377215779253</v>
+        <v>0.02066880449663715</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.04240982995184498</v>
+        <v>0.02342523407691166</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4375811813095445</v>
+        <v>0.462971467263266</v>
       </c>
       <c r="J24" s="6" t="n">
-        <v>0.2520127171829021</v>
+        <v>0.2875254429729134</v>
       </c>
     </row>
     <row r="25">
@@ -1343,7 +1347,7 @@
         <v>-0.02746753991652144</v>
       </c>
       <c r="J25" s="6" t="n">
-        <v>-0.4443629952100567</v>
+        <v>-0.4443629952100566</v>
       </c>
     </row>
     <row r="26">
@@ -1354,28 +1358,28 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>-4.294934483279999</v>
+        <v>-4.469735750757982</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>-2.947426173477776</v>
+        <v>-3.068798867728468</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>-4.626188239341681</v>
+        <v>-4.5437200539069</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>-18.68366296642545</v>
+        <v>-18.58552281330464</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3549101189617453</v>
+        <v>-0.3663606015176647</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.3251755159386505</v>
+        <v>-0.3393164827065377</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.2211842264748232</v>
+        <v>-0.2164977791611725</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.5344046561136979</v>
+        <v>-0.5294943212344453</v>
       </c>
     </row>
     <row r="27">
@@ -1386,28 +1390,28 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>1.699366274669825</v>
+        <v>1.867570963415478</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>2.280058550772576</v>
+        <v>2.215003538639113</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>3.144630701327524</v>
+        <v>3.638243492064747</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>-10.29630278404088</v>
+        <v>-9.96811568430233</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1821401882647667</v>
+        <v>0.2001518995358901</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.3598513311589749</v>
+        <v>0.3681118873681854</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.1910493336810669</v>
+        <v>0.2145053547538624</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>-0.3476169359222717</v>
+        <v>-0.3374890395673192</v>
       </c>
     </row>
     <row r="28">
@@ -1431,7 +1435,7 @@
         <v>0.1050984496961033</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-3.636440356200849</v>
+        <v>-3.636440356200846</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>-0.2088111782295789</v>
@@ -1443,7 +1447,7 @@
         <v>0.007804951518200707</v>
       </c>
       <c r="J28" s="6" t="n">
-        <v>-0.2143002327480279</v>
+        <v>-0.2143002327480278</v>
       </c>
     </row>
     <row r="29">
@@ -1454,28 +1458,28 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-4.851623507770142</v>
+        <v>-5.021382432836167</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-5.875903419461423</v>
+        <v>-5.850903177993096</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.643632501214412</v>
+        <v>-1.512609113329353</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-5.440216593813236</v>
+        <v>-5.755339884873367</v>
       </c>
       <c r="G29" s="6" t="n">
-        <v>-0.2912893312226296</v>
+        <v>-0.3014101849602978</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>-0.3140247252926021</v>
+        <v>-0.317866624033761</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>-0.1128991859001116</v>
+        <v>-0.106700585272009</v>
       </c>
       <c r="J29" s="6" t="n">
-        <v>-0.2966452566876477</v>
+        <v>-0.3115835930934575</v>
       </c>
     </row>
     <row r="30">
@@ -1486,28 +1490,28 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.578288845169964</v>
+        <v>-1.616774294195156</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-2.497543095141932</v>
+        <v>-2.314586399091741</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.696895342952338</v>
+        <v>1.890885002471636</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-1.752067290834397</v>
+        <v>-1.948502938254375</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>-0.1061488201614249</v>
+        <v>-0.1081968963647896</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>-0.1488675321868747</v>
+        <v>-0.1394414826285828</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.1340205082448734</v>
+        <v>0.1533330154256872</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>-0.1097377827886708</v>
+        <v>-0.123924179962934</v>
       </c>
     </row>
     <row r="31">
